--- a/2 - Approche agile/1 - Cours/Exemple de documents.xlsx
+++ b/2 - Approche agile/1 - Cours/Exemple de documents.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cours\2024_2025\Dev202_25\2 - Approche agile\1 - Cours\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cours\2024_2025\Dev201_25\2 - Approche agile\1 - Cours\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3F44917-BA73-4C3E-A2B0-1AD4B67FD82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DDBB22D-F7EB-4A8F-85FC-E58F2A862EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{616B0D20-3500-42A9-A33E-CF9CE03DE36C}"/>
   </bookViews>
   <sheets>
     <sheet name="Product BackLog" sheetId="4" r:id="rId1"/>
-    <sheet name="Tableau des priorités" sheetId="1" r:id="rId2"/>
-    <sheet name="User Stories" sheetId="3" r:id="rId3"/>
-    <sheet name="Sprint Kanban" sheetId="2" r:id="rId4"/>
+    <sheet name="structure back log" sheetId="5" r:id="rId2"/>
+    <sheet name="Tableau des priorités" sheetId="1" r:id="rId3"/>
+    <sheet name="User Stories" sheetId="3" r:id="rId4"/>
+    <sheet name="Sprint Kanban" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>*</t>
   </si>
@@ -74,9 +75,6 @@
     <t>xxl</t>
   </si>
   <si>
-    <t>#1,#5,#7</t>
-  </si>
-  <si>
     <t>#3</t>
   </si>
   <si>
@@ -225,13 +223,22 @@
   </si>
   <si>
     <t>Durée raffinée</t>
+  </si>
+  <si>
+    <t>Product Backlog</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>#1,#7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,6 +274,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -282,7 +296,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -344,11 +358,104 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -356,12 +463,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -369,6 +470,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -384,6 +503,612 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>753584</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>172138</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>757410</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>183615</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Connecteur droit avec flèche 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F1F9B82-13F4-060C-56F1-FA75329FD37F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1514819" y="5336295"/>
+          <a:ext cx="3826" cy="1350332"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3825</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>3825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>753584</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>11476</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Connecteur droit avec flèche 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A58FB09-393D-FF25-B353-7C5C1CE2DEF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1526295" y="6698102"/>
+          <a:ext cx="5317169" cy="7651"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>646476</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="870303" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="ZoneTexte 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{297F3047-F9FD-8E8F-19D2-6CD172DECF04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="646476" y="5355422"/>
+          <a:ext cx="870303" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" kern="1200"/>
+            <a:t>Très urgents</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>684117</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>106497</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="867930" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="ZoneTexte 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6DE1B44-332A-4956-B4BD-6512A009DAAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="684117" y="6418244"/>
+          <a:ext cx="867930" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" kern="1200"/>
+            <a:t>Non urgents</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>87982</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>61205</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1035348" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="ZoneTexte 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{348FFDD5-63DE-49BD-80FE-F33717CA8CAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1610452" y="6755482"/>
+          <a:ext cx="1035348" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" kern="1200"/>
+            <a:t>Pas Importants</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>654127</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>65030</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1065613" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="ZoneTexte 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8E582AF-543B-4F9E-A9F7-F27BC9F9A129}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5982772" y="6759307"/>
+          <a:ext cx="1065613" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" kern="1200"/>
+            <a:t>Très Importants</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100" kern="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1503343" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="ZoneTexte 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B77A4C1-D809-4580-9E16-67C8C0108B31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5328645" y="5355422"/>
+          <a:ext cx="1503343" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" kern="1200"/>
+            <a:t>A faire absolument</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" kern="1200"/>
+            <a:t>#5, #2, #4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>221867</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>30602</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1338855" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="ZoneTexte 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E57134E-8529-44FF-A282-1A6AD59E158D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1744337" y="6151084"/>
+          <a:ext cx="1338855" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" kern="1200"/>
+            <a:t>A retarder, à déléger, à supprimer</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>752972</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>87370</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1503343" cy="436786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="ZoneTexte 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8603447E-52A4-4788-9D92-7C5473DE8E0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5320382" y="6207852"/>
+          <a:ext cx="1503343" cy="436786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" kern="1200"/>
+            <a:t>A  planifier</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="fr-FR" sz="1100" kern="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" kern="1200"/>
+            <a:t>#5, #2, #4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133273</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>179177</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1338855" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="ZoneTexte 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAC44F03-D8C0-4B30-9988-3BDFF6DE3128}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1655743" y="5343334"/>
+          <a:ext cx="1338855" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100" kern="1200"/>
+            <a:t>A faire d'urgence</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -705,145 +1430,145 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68AFF372-CF66-457F-B561-BBB16DDE0FE1}">
   <dimension ref="F8:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="8" spans="6:7" ht="34.5" x14ac:dyDescent="0.55000000000000004">
       <c r="F8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="6:7" ht="34.5" x14ac:dyDescent="0.55000000000000004">
       <c r="F10" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="6:7" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="6:9" x14ac:dyDescent="0.25">
       <c r="G17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="6:9" x14ac:dyDescent="0.25">
       <c r="G19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="6:9" x14ac:dyDescent="0.25">
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="6:9" x14ac:dyDescent="0.25">
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="6:9" x14ac:dyDescent="0.25">
       <c r="G22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="6:9" x14ac:dyDescent="0.25">
       <c r="H23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="6:9" x14ac:dyDescent="0.25">
       <c r="H24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="6:9" x14ac:dyDescent="0.25">
       <c r="G25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="6:9" x14ac:dyDescent="0.25">
       <c r="H26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="6:9" x14ac:dyDescent="0.25">
       <c r="G28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="6:9" x14ac:dyDescent="0.25">
       <c r="H29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="6:9" x14ac:dyDescent="0.25">
       <c r="I30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="6:9" x14ac:dyDescent="0.25">
       <c r="I31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="6:9" x14ac:dyDescent="0.25">
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="8:9" x14ac:dyDescent="0.25">
       <c r="I35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -852,11 +1577,636 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE349853-8DE6-4B71-B2D1-1BCBC72E4B83}">
+  <dimension ref="F8:Q53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17:I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="8" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="22"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="14"/>
+    </row>
+    <row r="12" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="17"/>
+    </row>
+    <row r="13" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F13" s="6"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="17"/>
+    </row>
+    <row r="14" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="17"/>
+    </row>
+    <row r="15" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F15" s="15"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="17"/>
+    </row>
+    <row r="16" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="18"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="17"/>
+    </row>
+    <row r="17" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="15"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" s="15"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="17"/>
+    </row>
+    <row r="18" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="15"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="17"/>
+    </row>
+    <row r="19" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="15"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="17"/>
+    </row>
+    <row r="20" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="18"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="20"/>
+    </row>
+    <row r="21" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="17"/>
+    </row>
+    <row r="22" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F22" s="15"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="17"/>
+    </row>
+    <row r="23" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F23" s="15"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="17"/>
+    </row>
+    <row r="24" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F24" s="15"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="17"/>
+    </row>
+    <row r="25" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F25" s="15"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="17"/>
+    </row>
+    <row r="26" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F26" s="15"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="17"/>
+    </row>
+    <row r="27" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F27" s="15"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="17"/>
+    </row>
+    <row r="28" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F28" s="15"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="17"/>
+    </row>
+    <row r="29" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F29" s="15"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="17"/>
+    </row>
+    <row r="30" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="18"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="20"/>
+    </row>
+    <row r="31" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F31" s="12"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="14"/>
+    </row>
+    <row r="32" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F32" s="15"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="17"/>
+    </row>
+    <row r="33" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F33" s="15"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="17"/>
+    </row>
+    <row r="34" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F34" s="15"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+      <c r="Q34" s="17"/>
+    </row>
+    <row r="35" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F35" s="15"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="17"/>
+    </row>
+    <row r="36" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F36" s="15"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="17"/>
+    </row>
+    <row r="37" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F37" s="15"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="17"/>
+    </row>
+    <row r="38" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F38" s="15"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="17"/>
+    </row>
+    <row r="39" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F39" s="18"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="17"/>
+    </row>
+    <row r="40" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F40" s="12"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+      <c r="Q40" s="17"/>
+    </row>
+    <row r="41" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F41" s="15"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+      <c r="Q41" s="17"/>
+    </row>
+    <row r="42" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F42" s="15"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+      <c r="Q42" s="17"/>
+    </row>
+    <row r="43" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F43" s="15"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="17"/>
+    </row>
+    <row r="44" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F44" s="15"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="16"/>
+      <c r="Q44" s="17"/>
+    </row>
+    <row r="45" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F45" s="15"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="16"/>
+      <c r="Q45" s="17"/>
+    </row>
+    <row r="46" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F46" s="15"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="16"/>
+      <c r="Q46" s="17"/>
+    </row>
+    <row r="47" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F47" s="15"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="17"/>
+    </row>
+    <row r="48" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F48" s="15"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="17"/>
+    </row>
+    <row r="49" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F49" s="15"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="17"/>
+    </row>
+    <row r="50" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F50" s="15"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="16"/>
+      <c r="Q50" s="17"/>
+    </row>
+    <row r="51" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F51" s="15"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="17"/>
+    </row>
+    <row r="52" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F52" s="15"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="16"/>
+      <c r="Q52" s="17"/>
+    </row>
+    <row r="53" spans="6:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F53" s="18"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="19"/>
+      <c r="P53" s="19"/>
+      <c r="Q53" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE437BF-38D9-49A1-9FC0-AC67FAED4A63}">
-  <dimension ref="C22:I27"/>
+  <dimension ref="C22:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="249" zoomScaleNormal="249" workbookViewId="0">
-      <selection activeCell="C26" sqref="C22:C26"/>
+    <sheetView topLeftCell="A26" zoomScale="249" zoomScaleNormal="249" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,16 +2216,16 @@
         <v>4</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
@@ -885,10 +2235,12 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
@@ -898,7 +2250,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -909,14 +2261,14 @@
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -926,14 +2278,14 @@
         <v>0</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.25">
@@ -957,17 +2309,26 @@
         <v>10</v>
       </c>
     </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A724D5-C4A9-489B-9DF8-EEA90BF08F34}">
   <dimension ref="I6:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,55 +2340,55 @@
   <sheetData>
     <row r="6" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="9:17" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="9:17" ht="179.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="I10" s="7"/>
+      <c r="J10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q10" s="7"/>
+    </row>
+    <row r="11" spans="9:17" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="I11" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" s="9" t="s">
+      <c r="J11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="9:17" ht="179.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I10" s="9"/>
-      <c r="J10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q10" s="9"/>
-    </row>
-    <row r="11" spans="9:17" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="I11" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="11" t="s">
+      <c r="P11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K11" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="O11" s="9" t="s">
+      <c r="Q11" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="P11" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q11" s="9" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1035,12 +2396,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBAF19D4-7D34-4923-82BA-12D72700A637}">
   <dimension ref="E1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E13" sqref="E13:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,49 +2410,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="E1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="E1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="3" spans="5:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="E3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="E3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="5:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="5:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="5:8" ht="28.5" x14ac:dyDescent="0.45">
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="5:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="5:8" ht="35.25" thickBot="1" x14ac:dyDescent="0.6">
       <c r="E8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9" spans="5:8" x14ac:dyDescent="0.25">
